--- a/Employee_Reports35/Rommel Tamayo Eleosida Q0540.xlsx
+++ b/Employee_Reports35/Rommel Tamayo Eleosida Q0540.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1365,11 +1365,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,20 +1454,20 @@
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>10-Dec-2024</t>
+          <t>08-Dec-2024</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>10-Dec-2025</t>
+          <t>08-Dec-2025</t>
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1500,11 +1500,11 @@
         </is>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-102</v>
+        <v>-103</v>
       </c>
       <c r="I22" s="5" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="5" t="inlineStr">
@@ -1540,20 +1540,20 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>06-Mar-2025</t>
+          <t>11-Mar-2025</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>06-Mar-2026</t>
+          <t>11-Mar-2026</t>
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1569,36 +1569,232 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>11-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>11-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-009</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>30-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>30-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>268</v>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>18-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>18-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>287</v>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>19-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>19-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>288</v>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr"/>
+      <c r="D28" s="3" t="inlineStr"/>
+      <c r="E28" s="3" t="inlineStr"/>
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>01-Sep-2024</t>
         </is>
       </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>01-Sep-2026</t>
         </is>
       </c>
-      <c r="H24" s="3" t="n">
-        <v>302</v>
-      </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="inlineStr"/>
+      <c r="H28" s="3" t="n">
+        <v>301</v>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Rommel Tamayo Eleosida Q0540.xlsx
+++ b/Employee_Reports35/Rommel Tamayo Eleosida Q0540.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1365,11 +1365,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1463,11 +1463,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1500,11 +1500,11 @@
         </is>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-103</v>
+        <v>-104</v>
       </c>
       <c r="I22" s="5" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="5" t="inlineStr">
@@ -1549,11 +1549,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1598,11 +1598,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1647,11 +1647,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1696,11 +1696,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1745,11 +1745,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1782,11 +1782,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
